--- a/Data/Data_dict.xlsx
+++ b/Data/Data_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehdi\Documents\My M2\R\Rshiny-project\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA27DF-19F8-449B-96A7-2F1EBC4A1CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06354D-A853-4C82-AD18-2EF722BC359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE5489D7-8565-41CC-9416-AFEF7C09E0B9}"/>
   </bookViews>
@@ -41,53 +41,53 @@
     <t>Signification</t>
   </si>
   <si>
-    <t>Temperature of patient</t>
-  </si>
-  <si>
-    <t>Occurrence of nausea</t>
-  </si>
-  <si>
-    <t>Lumbar pain</t>
-  </si>
-  <si>
-    <t>Micturition pains</t>
-  </si>
-  <si>
-    <t>Inflammation of urinary bladder</t>
-  </si>
-  <si>
-    <t>La température du patient (variable numérique : entre 35.5 et 41.5)</t>
-  </si>
-  <si>
-    <t>Présence de nausées (variable binaire : yes ou no)</t>
-  </si>
-  <si>
-    <t>Douleurs lombaires (variable binaire : yes ou no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urine pushing </t>
-  </si>
-  <si>
-    <t>Poussée urinaire "besoin continu d'uriner" (variable binaire : yes ou no)</t>
-  </si>
-  <si>
-    <t>Douleurs de la miction (variable binaire : yes ou no)</t>
-  </si>
-  <si>
-    <t>Burning of urethra</t>
-  </si>
-  <si>
-    <t>Brûlure de l'urètre, démangeaisons, gonflement de la sortie de l'urètre  (variable binaire : yes ou no)</t>
-  </si>
-  <si>
-    <t>Présence d'inflammation de la vessie urinaire (variable binaire : yes ou no)</t>
+    <t xml:space="preserve">  Temperature of patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Occurrence of nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lumbar pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Urine pushing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Micturition pains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Burning of urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Inflammation of urinary bladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  La température du patient (variable numérique : entre 35.5 et 41.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Présence de nausées (variable binaire : yes ou no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Douleurs lombaires (variable binaire : yes ou no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Poussée urinaire "besoin continu d'uriner" (variable binaire : yes ou no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Douleurs de la miction (variable binaire : yes ou no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Brûlure de l'urètre, démangeaisons, gonflement de la sortie de l'urètre  (variable binaire : yes ou no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Présence d'inflammation de la vessie urinaire (variable binaire : yes ou no)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,10 +96,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PT Serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,9 +150,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +474,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,67 +483,67 @@
     <col min="2" max="2" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/Data_dict.xlsx
+++ b/Data/Data_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehdi\Documents\My M2\R\Rshiny-project\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06354D-A853-4C82-AD18-2EF722BC359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF88D76-DF8D-400A-898D-28689CE2169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE5489D7-8565-41CC-9416-AFEF7C09E0B9}"/>
   </bookViews>
@@ -98,13 +98,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="PT Serif"/>
+      <name val="Montserrat"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="PT Serif"/>
+      <color rgb="FFC00000"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,14 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,20 +473,20 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55.5546875" customWidth="1"/>
+    <col min="2" max="2" width="117.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
